--- a/Documento PI/cronograma PI.xlsx
+++ b/Documento PI/cronograma PI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documento PI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HunterX\Desktop\PI Mapas\Documento PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">N# </t>
   </si>
@@ -50,7 +50,13 @@
     <t>2 al 7 de Julio del 2018</t>
   </si>
   <si>
-    <t>Pruebas del mapa con sus funciones (arreglos y modificaciones)</t>
+    <t>Pruebas del mapa con sus funciones (arreglos, modificaciones, instalacion de programas)</t>
+  </si>
+  <si>
+    <t>9 al 14 de Jilio del 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionamiento del programa </t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +444,12 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
